--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H2">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I2">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J2">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N2">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q2">
-        <v>81.15258545486401</v>
+        <v>66.42530606397779</v>
       </c>
       <c r="R2">
-        <v>730.373269093776</v>
+        <v>597.8277545758</v>
       </c>
       <c r="S2">
-        <v>0.00696612056789462</v>
+        <v>0.01422886685227295</v>
       </c>
       <c r="T2">
-        <v>0.00696612056789462</v>
+        <v>0.01422886685227295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H3">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I3">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J3">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q3">
-        <v>428.8814999628961</v>
+        <v>248.0585413038631</v>
       </c>
       <c r="R3">
-        <v>3859.933499666064</v>
+        <v>2232.526871734768</v>
       </c>
       <c r="S3">
-        <v>0.0368150961714302</v>
+        <v>0.05313625431220714</v>
       </c>
       <c r="T3">
-        <v>0.0368150961714302</v>
+        <v>0.05313625431220713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H4">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I4">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J4">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N4">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q4">
-        <v>110.721981637632</v>
+        <v>9.983606008120887</v>
       </c>
       <c r="R4">
-        <v>996.4978347386881</v>
+        <v>89.85245407308798</v>
       </c>
       <c r="S4">
-        <v>0.00950435120804558</v>
+        <v>0.00213857351983118</v>
       </c>
       <c r="T4">
-        <v>0.00950435120804558</v>
+        <v>0.00213857351983118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H5">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I5">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J5">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N5">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q5">
-        <v>241.521587842488</v>
+        <v>152.2750284910338</v>
       </c>
       <c r="R5">
-        <v>2173.694290582392</v>
+        <v>1370.475256419304</v>
       </c>
       <c r="S5">
-        <v>0.02073216141210793</v>
+        <v>0.03261860928782358</v>
       </c>
       <c r="T5">
-        <v>0.02073216141210793</v>
+        <v>0.03261860928782358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H6">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I6">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J6">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N6">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q6">
-        <v>90.77795871696001</v>
+        <v>10.09654048651111</v>
       </c>
       <c r="R6">
-        <v>817.00162845264</v>
+        <v>90.86886437859999</v>
       </c>
       <c r="S6">
-        <v>0.007792360548776597</v>
+        <v>0.002162765047898775</v>
       </c>
       <c r="T6">
-        <v>0.007792360548776597</v>
+        <v>0.002162765047898776</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H7">
         <v>186.697914</v>
       </c>
       <c r="I7">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J7">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N7">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q7">
-        <v>139.5756509253773</v>
+        <v>197.5258744066834</v>
       </c>
       <c r="R7">
-        <v>1256.180858328396</v>
+        <v>1777.73286966015</v>
       </c>
       <c r="S7">
-        <v>0.01198114400470126</v>
+        <v>0.04231172625843044</v>
       </c>
       <c r="T7">
-        <v>0.01198114400470126</v>
+        <v>0.04231172625843042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H8">
         <v>186.697914</v>
       </c>
       <c r="I8">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J8">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q8">
-        <v>737.6402636052493</v>
+        <v>737.6402636052494</v>
       </c>
       <c r="R8">
-        <v>6638.762372447243</v>
+        <v>6638.762372447244</v>
       </c>
       <c r="S8">
-        <v>0.06331888236469924</v>
+        <v>0.1580088330433218</v>
       </c>
       <c r="T8">
-        <v>0.06331888236469924</v>
+        <v>0.1580088330433218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H9">
         <v>186.697914</v>
       </c>
       <c r="I9">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J9">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N9">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q9">
-        <v>190.4325360948053</v>
+        <v>29.68778953892267</v>
       </c>
       <c r="R9">
-        <v>1713.892824853248</v>
+        <v>267.190105850304</v>
       </c>
       <c r="S9">
-        <v>0.01634668814370902</v>
+        <v>0.006359377615524625</v>
       </c>
       <c r="T9">
-        <v>0.01634668814370902</v>
+        <v>0.006359377615524624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H10">
         <v>186.697914</v>
       </c>
       <c r="I10">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J10">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N10">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q10">
-        <v>415.3969050609646</v>
+        <v>452.8132414478314</v>
       </c>
       <c r="R10">
-        <v>3738.572145548681</v>
+        <v>4075.319173030482</v>
       </c>
       <c r="S10">
-        <v>0.03565758143090086</v>
+        <v>0.09699645667122253</v>
       </c>
       <c r="T10">
-        <v>0.03565758143090086</v>
+        <v>0.09699645667122253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H11">
         <v>186.697914</v>
       </c>
       <c r="I11">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J11">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N11">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q11">
-        <v>156.13048686716</v>
+        <v>30.02361759778333</v>
       </c>
       <c r="R11">
-        <v>1405.17438180444</v>
+        <v>270.21255838005</v>
       </c>
       <c r="S11">
-        <v>0.01340220757902588</v>
+        <v>0.006431314848755938</v>
       </c>
       <c r="T11">
-        <v>0.01340220757902588</v>
+        <v>0.006431314848755938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>203.1252746666667</v>
+        <v>51.101662</v>
       </c>
       <c r="H12">
-        <v>609.375824</v>
+        <v>153.304986</v>
       </c>
       <c r="I12">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J12">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N12">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q12">
-        <v>455.5703139403485</v>
+        <v>162.1962493408167</v>
       </c>
       <c r="R12">
-        <v>4100.132825463135</v>
+        <v>1459.76624406735</v>
       </c>
       <c r="S12">
-        <v>0.03910605825155332</v>
+        <v>0.03474381937488873</v>
       </c>
       <c r="T12">
-        <v>0.03910605825155332</v>
+        <v>0.03474381937488873</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>203.1252746666667</v>
+        <v>51.101662</v>
       </c>
       <c r="H13">
-        <v>609.375824</v>
+        <v>153.304986</v>
       </c>
       <c r="I13">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J13">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q13">
-        <v>2407.633453526567</v>
+        <v>605.7053764673508</v>
       </c>
       <c r="R13">
-        <v>21668.70108173911</v>
+        <v>5451.348388206157</v>
       </c>
       <c r="S13">
-        <v>0.2066707403905309</v>
+        <v>0.1297472554384447</v>
       </c>
       <c r="T13">
-        <v>0.2066707403905309</v>
+        <v>0.1297472554384447</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>203.1252746666667</v>
+        <v>51.101662</v>
       </c>
       <c r="H14">
-        <v>609.375824</v>
+        <v>153.304986</v>
       </c>
       <c r="I14">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J14">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N14">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q14">
-        <v>621.5655071495964</v>
+        <v>24.37780938267733</v>
       </c>
       <c r="R14">
-        <v>5594.089564346368</v>
+        <v>219.400284444096</v>
       </c>
       <c r="S14">
-        <v>0.05335505011182778</v>
+        <v>0.005221934597066339</v>
       </c>
       <c r="T14">
-        <v>0.05335505011182777</v>
+        <v>0.005221934597066339</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>203.1252746666667</v>
+        <v>51.101662</v>
       </c>
       <c r="H15">
-        <v>609.375824</v>
+        <v>153.304986</v>
       </c>
       <c r="I15">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J15">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N15">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q15">
-        <v>1355.841776082057</v>
+        <v>371.8227277074687</v>
       </c>
       <c r="R15">
-        <v>12202.57598473851</v>
+        <v>3346.404549367218</v>
       </c>
       <c r="S15">
-        <v>0.1163851678937469</v>
+        <v>0.0796475981624057</v>
       </c>
       <c r="T15">
-        <v>0.1163851678937469</v>
+        <v>0.07964759816240571</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>203.1252746666667</v>
+        <v>51.101662</v>
       </c>
       <c r="H16">
-        <v>609.375824</v>
+        <v>153.304986</v>
       </c>
       <c r="I16">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J16">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N16">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q16">
-        <v>509.6047515892266</v>
+        <v>24.65357098471667</v>
       </c>
       <c r="R16">
-        <v>4586.442764303039</v>
+        <v>221.88213886245</v>
       </c>
       <c r="S16">
-        <v>0.0437443628153657</v>
+        <v>0.00528100508316403</v>
       </c>
       <c r="T16">
-        <v>0.04374436281536569</v>
+        <v>0.005281005083164032</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.574566000000001</v>
+        <v>4.923547333333333</v>
       </c>
       <c r="H17">
-        <v>16.723698</v>
+        <v>14.770642</v>
       </c>
       <c r="I17">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="J17">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N17">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q17">
-        <v>12.50266263944134</v>
+        <v>15.62729820643889</v>
       </c>
       <c r="R17">
-        <v>112.523963754972</v>
+        <v>140.64568385795</v>
       </c>
       <c r="S17">
-        <v>0.001073225885261549</v>
+        <v>0.003347500502685185</v>
       </c>
       <c r="T17">
-        <v>0.001073225885261549</v>
+        <v>0.003347500502685184</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.574566000000001</v>
+        <v>4.923547333333333</v>
       </c>
       <c r="H18">
-        <v>16.723698</v>
+        <v>14.770642</v>
       </c>
       <c r="I18">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="J18">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q18">
-        <v>66.07504463694535</v>
+        <v>58.35855379990357</v>
       </c>
       <c r="R18">
-        <v>594.6754017325081</v>
+        <v>525.2269841991321</v>
       </c>
       <c r="S18">
-        <v>0.005671867690844989</v>
+        <v>0.01250089974610363</v>
       </c>
       <c r="T18">
-        <v>0.005671867690844989</v>
+        <v>0.01250089974610362</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.574566000000001</v>
+        <v>4.923547333333333</v>
       </c>
       <c r="H19">
-        <v>16.723698</v>
+        <v>14.770642</v>
       </c>
       <c r="I19">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="J19">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N19">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q19">
-        <v>17.05823142203734</v>
+        <v>2.348755278812444</v>
       </c>
       <c r="R19">
-        <v>153.524082798336</v>
+        <v>21.138797509312</v>
       </c>
       <c r="S19">
-        <v>0.001464274934617482</v>
+        <v>0.0005031234044839295</v>
       </c>
       <c r="T19">
-        <v>0.001464274934617482</v>
+        <v>0.0005031234044839294</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.574566000000001</v>
+        <v>4.923547333333333</v>
       </c>
       <c r="H20">
-        <v>16.723698</v>
+        <v>14.770642</v>
       </c>
       <c r="I20">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="J20">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N20">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q20">
-        <v>37.20969474985267</v>
+        <v>35.82440820568289</v>
       </c>
       <c r="R20">
-        <v>334.887252748674</v>
+        <v>322.419673851146</v>
       </c>
       <c r="S20">
-        <v>0.003194072234041105</v>
+        <v>0.00767389365024796</v>
       </c>
       <c r="T20">
-        <v>0.003194072234041105</v>
+        <v>0.00767389365024796</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.574566000000001</v>
+        <v>4.923547333333333</v>
       </c>
       <c r="H21">
-        <v>16.723698</v>
+        <v>14.770642</v>
       </c>
       <c r="I21">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="J21">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N21">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q21">
-        <v>13.98558267212</v>
+        <v>2.375324381405556</v>
       </c>
       <c r="R21">
-        <v>125.87024404908</v>
+        <v>21.37791943265</v>
       </c>
       <c r="S21">
-        <v>0.001200519423505396</v>
+        <v>0.000508814732768027</v>
       </c>
       <c r="T21">
-        <v>0.001200519423505396</v>
+        <v>0.000508814732768027</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>135.170856</v>
+        <v>61.49486933333333</v>
       </c>
       <c r="H22">
-        <v>405.512568</v>
+        <v>184.484608</v>
       </c>
       <c r="I22">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="J22">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N22">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q22">
-        <v>303.161826634128</v>
+        <v>195.1842028067556</v>
       </c>
       <c r="R22">
-        <v>2728.456439707152</v>
+        <v>1756.6578252608</v>
       </c>
       <c r="S22">
-        <v>0.02602334631828941</v>
+        <v>0.04181012023835384</v>
       </c>
       <c r="T22">
-        <v>0.02602334631828941</v>
+        <v>0.04181012023835383</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>135.170856</v>
+        <v>61.49486933333333</v>
       </c>
       <c r="H23">
-        <v>405.512568</v>
+        <v>184.484608</v>
       </c>
       <c r="I23">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="J23">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.558846</v>
       </c>
       <c r="O23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q23">
-        <v>1602.173217397392</v>
+        <v>728.8955294713743</v>
       </c>
       <c r="R23">
-        <v>14419.55895657653</v>
+        <v>6560.059765242368</v>
       </c>
       <c r="S23">
-        <v>0.1375302060986022</v>
+        <v>0.1561356364406657</v>
       </c>
       <c r="T23">
-        <v>0.1375302060986022</v>
+        <v>0.1561356364406656</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>135.170856</v>
+        <v>61.49486933333333</v>
       </c>
       <c r="H24">
-        <v>405.512568</v>
+        <v>184.484608</v>
       </c>
       <c r="I24">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="J24">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N24">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q24">
-        <v>413.6242611824641</v>
+        <v>29.33584043940978</v>
       </c>
       <c r="R24">
-        <v>3722.618350642177</v>
+        <v>264.0225639546879</v>
       </c>
       <c r="S24">
-        <v>0.03550541805973578</v>
+        <v>0.006283987117949454</v>
       </c>
       <c r="T24">
-        <v>0.03550541805973578</v>
+        <v>0.006283987117949454</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>135.170856</v>
+        <v>61.49486933333333</v>
       </c>
       <c r="H25">
-        <v>405.512568</v>
+        <v>184.484608</v>
       </c>
       <c r="I25">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="J25">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N25">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q25">
-        <v>902.2525324547761</v>
+        <v>447.4451350630115</v>
       </c>
       <c r="R25">
-        <v>8120.272792092985</v>
+        <v>4027.006215567104</v>
       </c>
       <c r="S25">
-        <v>0.07744916429389632</v>
+        <v>0.09584656251906205</v>
       </c>
       <c r="T25">
-        <v>0.07744916429389632</v>
+        <v>0.09584656251906205</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>135.170856</v>
+        <v>61.49486933333333</v>
       </c>
       <c r="H26">
-        <v>405.512568</v>
+        <v>184.484608</v>
       </c>
       <c r="I26">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="J26">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N26">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q26">
-        <v>339.11934694992</v>
+        <v>29.66768725262222</v>
       </c>
       <c r="R26">
-        <v>3052.07412254928</v>
+        <v>267.0091852735999</v>
       </c>
       <c r="S26">
-        <v>0.02910993216688993</v>
+        <v>0.006355071534421742</v>
       </c>
       <c r="T26">
-        <v>0.02910993216688993</v>
+        <v>0.006355071534421742</v>
       </c>
     </row>
   </sheetData>
